--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078182.433515031</v>
+        <v>-1080738.74934228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.9108136858646</v>
+        <v>166.5901478022474</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.20353261595683</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.67947933734542</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>303.3106897765203</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>240.8835779819835</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>134.7466378365498</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.0445447513306</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>269.2941534682205</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.16120366558562</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>46.68696776231206</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2873251119337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>173.2052365248848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951073</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>82.4729044930077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>193.996253843244</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>17.48314223074837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>180.3302385618281</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788180326</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352489</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.184635123826</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.222118183415</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,58 +4322,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.184635123826</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>449.8213709509843</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>280.8851880230774</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>917.1703600228861</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>917.1703600228861</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>917.1703600228861</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>917.1703600228861</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X4" t="n">
-        <v>689.1808091248688</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y4" t="n">
-        <v>689.1808091248688</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2240.582457090719</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1060.395265809902</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1060.395265809902</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>649.4093610202945</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.582457090719</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2638.933768848451</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C7" t="n">
-        <v>2638.933768848451</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>2638.933768848451</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>2638.933768848451</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>2638.933768848451</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>3103.839206178697</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>2814.73633930434</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>2814.73633930434</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>2814.73633930434</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="X7" t="n">
-        <v>2814.73633930434</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y7" t="n">
-        <v>2638.933768848451</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>287.5978169884295</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410102</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3452334219998</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757135</v>
+        <v>873.7284525229202</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387529</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="X10" t="n">
-        <v>541.6393785387529</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.6393785387529</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794805</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,25 +5285,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>763.7541388327643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>613.6374994204285</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>465.7244058380354</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>318.834458340125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>800.5007694647277</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>650.3841300523919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>502.4710364699988</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2253.366709591041</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580114</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,19 +6956,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.9623738269431</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.327124970188947</v>
+        <v>219.6477908538062</v>
       </c>
     </row>
     <row r="3">
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>102.4119404022555</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>92.20568423527074</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>215.8694699388238</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327287</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.204026273936473e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>65.54986409392981</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>83.05123379926114</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>24.58839950885078</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.854235827416</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.469330230032</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-2.629008122312371e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943216</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660707</v>
@@ -26320,10 +26320,10 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
@@ -26347,10 +26347,10 @@
         <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26366,7 +26366,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
@@ -26375,7 +26375,7 @@
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363144</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691504</v>
+        <v>11387.3321669149</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.4992699732</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997319</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997311</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
         <v>23427.49926997314</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577296</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.757800624648</v>
+        <v>3729.757800624837</v>
       </c>
       <c r="D6" t="n">
         <v>3729.75780062472</v>
       </c>
       <c r="E6" t="n">
-        <v>-240184.9817156406</v>
+        <v>-240219.7196410762</v>
       </c>
       <c r="F6" t="n">
-        <v>85227.48009171498</v>
+        <v>85192.74216627885</v>
       </c>
       <c r="G6" t="n">
-        <v>85227.48009171478</v>
+        <v>85192.74216627931</v>
       </c>
       <c r="H6" t="n">
-        <v>85227.48009171475</v>
+        <v>85192.74216627917</v>
       </c>
       <c r="I6" t="n">
-        <v>85227.48009171475</v>
+        <v>85192.74216627917</v>
       </c>
       <c r="J6" t="n">
-        <v>-132303.7223055627</v>
+        <v>-132338.4602309983</v>
       </c>
       <c r="K6" t="n">
-        <v>85227.48009171481</v>
+        <v>85192.7421662791</v>
       </c>
       <c r="L6" t="n">
-        <v>59241.10934855083</v>
+        <v>59241.10934855125</v>
       </c>
       <c r="M6" t="n">
-        <v>-6386.200593329253</v>
+        <v>-6386.200593329151</v>
       </c>
       <c r="N6" t="n">
+        <v>78668.82734218234</v>
+      </c>
+      <c r="O6" t="n">
         <v>78668.8273421824</v>
-      </c>
-      <c r="O6" t="n">
-        <v>78668.82734218231</v>
       </c>
       <c r="P6" t="n">
         <v>78668.82734218237</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,13 +26796,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.7714678365375</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.14673617456738</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>61.9622019944872</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>170.0381476714699</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>151.7763605000412</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.5401086007642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>75.73292083663679</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>116.9437851878331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.6707765163517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>205.4506755615159</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,28 +31838,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>305.6802133385886</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>351.6082511035024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7058059242583</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>217.6338436891722</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
